--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_200.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1014285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7']]</t>
-        </is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_51</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2166666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
+          <t>[['E', 'C#:min', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(73.74, 83.38), (74.84, 87.34)]</t>
+          <t>[['C', 'A:min', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(24.29, 28.79), (29.9, 33.22)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:21.966099', '0:00:38.150408')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.459543', '0:00:08.725464')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1369047619047619</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.56, 21.44)]</t>
+          <t>[['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.094553, 16.853782)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:08.240000', '0:00:13.460000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2475</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929), (18.783807, 24.845034)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(224.58, 232.16), (56.92, 63.56)]</t>
+          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_10</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1456043956043956</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:7/b7', 'F:maj', 'F:min(6)']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98)]</t>
+          <t>[['Eb:7', 'Ab', 'F:hdim7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.98, 28.9)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:59.359000', '0:01:04.407000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:24.400000', '0:00:32.520000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1564171122994653</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.263975, 17.488465)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.54151, 18.95455)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:48.700000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:10.580000', '0:00:17.960000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A'], ['E', 'A', 'A', 'E'], ['D', 'E', 'A', 'E'], ['D', 'A', 'E', 'A'], ['A', 'E', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07338709677419356</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C', 'G'], ['D', 'G', 'G', 'D'], ['C', 'D', 'G', 'D'], ['C', 'G', 'D', 'G'], ['G', 'D', 'G', 'G']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.30541, 13.723731), (1.274255, 7.505864), (53.551034, 60.67956), (11.964095, 16.329446), (0.421247, 5.746892)]</t>
+          <t>[['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(44.983424, 55.304693), (21.740249, 29.530544), (91.527823, 101.883922), (8.934444, 19.151224), (70.838843, 81.090453)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:09.600000', '0:00:13.300000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'E'], ['E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(29.008095, 34.615714), (16.701519, 23.528185)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(200.52, 203.86), (0.74, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(101.5, 108.3), (17.12, 24.9)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(98.06, 105.6), (134.22, 139.56)]</t>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.236344537815126</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A', 'D', 'D/5']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4571428571428572</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.431879, 17.965212)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.608639, 26.921541)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.4, 16.5)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.440395, 12.905056)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1046910755148741</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C', 'C/7'], ['C', 'C/b7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'A'], ['A', 'A', 'D']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(51.6, 55.527), (35.532, 40.124)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(31.05097, 36.809519), (14.448702, 17.908476)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.28, 44.36)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.6, 12.54)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2280405405405405</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.3, 3.64)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(46.88, 58.12)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1646655231560892</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:9', 'A', 'D/5'], ['A', 'D/5', 'D'], ['D/5', 'A', 'D/5'], ['D', 'G/5', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:9', 'B', 'E'], ['B', 'E', 'E'], ['E', 'B', 'E'], ['E', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(29.785963, 32.630408), (35.463242, 38.330907), (31.898979, 34.035215), (19.708503, 25.501882)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.30501, 23.526414), (29.888683, 33.836075), (32.233898, 36.959159), (6.726778, 13.147096)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
